--- a/Data/wheat_prediction.xlsx
+++ b/Data/wheat_prediction.xlsx
@@ -527,34 +527,34 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>-42.93</v>
+        <v>-31.71</v>
       </c>
       <c r="C2" t="n">
-        <v>-42.89</v>
+        <v>-31.67</v>
       </c>
       <c r="D2" t="n">
-        <v>-42.86</v>
+        <v>-31.65</v>
       </c>
       <c r="E2" t="n">
-        <v>-42.84</v>
+        <v>-31.63</v>
       </c>
       <c r="F2" t="n">
-        <v>-42.82</v>
+        <v>-31.61</v>
       </c>
       <c r="G2" t="n">
-        <v>-42.8</v>
+        <v>-31.59</v>
       </c>
       <c r="H2" t="n">
-        <v>-42.78</v>
+        <v>-31.57</v>
       </c>
       <c r="I2" t="n">
-        <v>-42.76</v>
+        <v>-31.55</v>
       </c>
       <c r="J2" t="n">
-        <v>-42.74</v>
+        <v>-31.53</v>
       </c>
       <c r="K2" t="n">
-        <v>-42.71</v>
+        <v>-31.51</v>
       </c>
     </row>
     <row r="3">
@@ -562,34 +562,34 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>777.5</v>
+        <v>752.75</v>
       </c>
       <c r="C3" t="n">
-        <v>781.47</v>
+        <v>756.53</v>
       </c>
       <c r="D3" t="n">
-        <v>785.41</v>
+        <v>760.29</v>
       </c>
       <c r="E3" t="n">
-        <v>789.35</v>
+        <v>764.05</v>
       </c>
       <c r="F3" t="n">
-        <v>793.29</v>
+        <v>767.81</v>
       </c>
       <c r="G3" t="n">
-        <v>797.25</v>
+        <v>771.58</v>
       </c>
       <c r="H3" t="n">
-        <v>799.24</v>
+        <v>773.48</v>
       </c>
       <c r="I3" t="n">
-        <v>801.23</v>
+        <v>775.38</v>
       </c>
       <c r="J3" t="n">
-        <v>803.25</v>
+        <v>777.3</v>
       </c>
       <c r="K3" t="n">
-        <v>805.24</v>
+        <v>779.2</v>
       </c>
     </row>
     <row r="4">
@@ -597,34 +597,34 @@
         <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>-282.33</v>
+        <v>-258.29</v>
       </c>
       <c r="C4" t="n">
-        <v>-282.01</v>
+        <v>-257.99</v>
       </c>
       <c r="D4" t="n">
-        <v>-281.71</v>
+        <v>-257.7</v>
       </c>
       <c r="E4" t="n">
-        <v>-281.41</v>
+        <v>-257.41</v>
       </c>
       <c r="F4" t="n">
-        <v>-281.11</v>
+        <v>-257.13</v>
       </c>
       <c r="G4" t="n">
-        <v>-280.81</v>
+        <v>-256.84</v>
       </c>
       <c r="H4" t="n">
-        <v>-280.53</v>
+        <v>-256.58</v>
       </c>
       <c r="I4" t="n">
-        <v>-280.25</v>
+        <v>-256.31</v>
       </c>
       <c r="J4" t="n">
-        <v>-279.98</v>
+        <v>-256.05</v>
       </c>
       <c r="K4" t="n">
-        <v>-279.7</v>
+        <v>-255.78</v>
       </c>
     </row>
     <row r="5">
@@ -632,34 +632,34 @@
         <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>527.72</v>
+        <v>513.66</v>
       </c>
       <c r="C5" t="n">
-        <v>534.89</v>
+        <v>520.5</v>
       </c>
       <c r="D5" t="n">
-        <v>542.07</v>
+        <v>527.35</v>
       </c>
       <c r="E5" t="n">
-        <v>549.22</v>
+        <v>534.17</v>
       </c>
       <c r="F5" t="n">
-        <v>556.4</v>
+        <v>541.01</v>
       </c>
       <c r="G5" t="n">
-        <v>563.57</v>
+        <v>547.86</v>
       </c>
       <c r="H5" t="n">
-        <v>569.89</v>
+        <v>553.88</v>
       </c>
       <c r="I5" t="n">
-        <v>576.23</v>
+        <v>559.93</v>
       </c>
       <c r="J5" t="n">
-        <v>582.57</v>
+        <v>565.98</v>
       </c>
       <c r="K5" t="n">
-        <v>588.91</v>
+        <v>572.02</v>
       </c>
     </row>
     <row r="6">
@@ -667,34 +667,34 @@
         <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>2685.59</v>
+        <v>2569.88</v>
       </c>
       <c r="C6" t="n">
-        <v>2724.92</v>
+        <v>2607.38</v>
       </c>
       <c r="D6" t="n">
-        <v>2764.26</v>
+        <v>2644.91</v>
       </c>
       <c r="E6" t="n">
-        <v>2803.59</v>
+        <v>2682.41</v>
       </c>
       <c r="F6" t="n">
-        <v>2842.93</v>
+        <v>2719.94</v>
       </c>
       <c r="G6" t="n">
-        <v>2882.26</v>
+        <v>2757.44</v>
       </c>
       <c r="H6" t="n">
-        <v>2919.84</v>
+        <v>2793.29</v>
       </c>
       <c r="I6" t="n">
-        <v>2957.43</v>
+        <v>2829.14</v>
       </c>
       <c r="J6" t="n">
-        <v>2995.04</v>
+        <v>2865.01</v>
       </c>
       <c r="K6" t="n">
-        <v>3032.63</v>
+        <v>2900.86</v>
       </c>
     </row>
     <row r="7">
@@ -702,34 +702,34 @@
         <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>623.68</v>
+        <v>599.75</v>
       </c>
       <c r="C7" t="n">
-        <v>623.91</v>
+        <v>599.97</v>
       </c>
       <c r="D7" t="n">
-        <v>624.17</v>
+        <v>600.22</v>
       </c>
       <c r="E7" t="n">
-        <v>624.43</v>
+        <v>600.46</v>
       </c>
       <c r="F7" t="n">
-        <v>624.68</v>
+        <v>600.71</v>
       </c>
       <c r="G7" t="n">
-        <v>624.94</v>
+        <v>600.95</v>
       </c>
       <c r="H7" t="n">
-        <v>625.15</v>
+        <v>601.16</v>
       </c>
       <c r="I7" t="n">
-        <v>625.37</v>
+        <v>601.36</v>
       </c>
       <c r="J7" t="n">
-        <v>625.6</v>
+        <v>601.58</v>
       </c>
       <c r="K7" t="n">
-        <v>625.82</v>
+        <v>601.79</v>
       </c>
     </row>
     <row r="8">
@@ -737,34 +737,34 @@
         <v>17</v>
       </c>
       <c r="B8" t="n">
-        <v>378.56</v>
+        <v>371.6</v>
       </c>
       <c r="C8" t="n">
-        <v>385.91</v>
+        <v>378.61</v>
       </c>
       <c r="D8" t="n">
-        <v>393.27</v>
+        <v>385.64</v>
       </c>
       <c r="E8" t="n">
-        <v>400.64</v>
+        <v>392.66</v>
       </c>
       <c r="F8" t="n">
-        <v>407.99</v>
+        <v>399.67</v>
       </c>
       <c r="G8" t="n">
-        <v>415.36</v>
+        <v>406.7</v>
       </c>
       <c r="H8" t="n">
-        <v>421.8</v>
+        <v>412.85</v>
       </c>
       <c r="I8" t="n">
-        <v>428.27</v>
+        <v>419.02</v>
       </c>
       <c r="J8" t="n">
-        <v>434.74</v>
+        <v>425.19</v>
       </c>
       <c r="K8" t="n">
-        <v>441.19</v>
+        <v>431.33</v>
       </c>
     </row>
     <row r="9">
@@ -772,34 +772,34 @@
         <v>18</v>
       </c>
       <c r="B9" t="n">
-        <v>-75.87</v>
+        <v>-62.88</v>
       </c>
       <c r="C9" t="n">
-        <v>-74.88</v>
+        <v>-61.94</v>
       </c>
       <c r="D9" t="n">
-        <v>-73.92</v>
+        <v>-61.02</v>
       </c>
       <c r="E9" t="n">
-        <v>-72.93</v>
+        <v>-60.08</v>
       </c>
       <c r="F9" t="n">
-        <v>-71.97</v>
+        <v>-59.16</v>
       </c>
       <c r="G9" t="n">
-        <v>-70.98</v>
+        <v>-58.22</v>
       </c>
       <c r="H9" t="n">
-        <v>-69.53</v>
+        <v>-56.83</v>
       </c>
       <c r="I9" t="n">
-        <v>-68.05</v>
+        <v>-55.42</v>
       </c>
       <c r="J9" t="n">
-        <v>-66.59</v>
+        <v>-54.04</v>
       </c>
       <c r="K9" t="n">
-        <v>-65.14</v>
+        <v>-52.65</v>
       </c>
     </row>
     <row r="10">
@@ -807,34 +807,34 @@
         <v>19</v>
       </c>
       <c r="B10" t="n">
-        <v>211.58</v>
+        <v>209.34</v>
       </c>
       <c r="C10" t="n">
-        <v>212.59</v>
+        <v>210.3</v>
       </c>
       <c r="D10" t="n">
-        <v>213.61</v>
+        <v>211.28</v>
       </c>
       <c r="E10" t="n">
-        <v>214.62</v>
+        <v>212.24</v>
       </c>
       <c r="F10" t="n">
-        <v>215.63</v>
+        <v>213.2</v>
       </c>
       <c r="G10" t="n">
-        <v>216.63</v>
+        <v>214.16</v>
       </c>
       <c r="H10" t="n">
-        <v>218.5</v>
+        <v>215.94</v>
       </c>
       <c r="I10" t="n">
-        <v>220.34</v>
+        <v>217.7</v>
       </c>
       <c r="J10" t="n">
-        <v>222.18</v>
+        <v>219.45</v>
       </c>
       <c r="K10" t="n">
-        <v>224.04</v>
+        <v>221.23</v>
       </c>
     </row>
     <row r="11">
@@ -842,34 +842,34 @@
         <v>20</v>
       </c>
       <c r="B11" t="n">
-        <v>942.69</v>
+        <v>904.63</v>
       </c>
       <c r="C11" t="n">
-        <v>951.13</v>
+        <v>912.68</v>
       </c>
       <c r="D11" t="n">
-        <v>959.57</v>
+        <v>920.73</v>
       </c>
       <c r="E11" t="n">
-        <v>967.99</v>
+        <v>928.76</v>
       </c>
       <c r="F11" t="n">
-        <v>976.43</v>
+        <v>936.81</v>
       </c>
       <c r="G11" t="n">
-        <v>984.87</v>
+        <v>944.86</v>
       </c>
       <c r="H11" t="n">
-        <v>993.48</v>
+        <v>953.07</v>
       </c>
       <c r="I11" t="n">
-        <v>1002.11</v>
+        <v>961.3</v>
       </c>
       <c r="J11" t="n">
-        <v>1010.72</v>
+        <v>969.51</v>
       </c>
       <c r="K11" t="n">
-        <v>1019.35</v>
+        <v>977.74</v>
       </c>
     </row>
     <row r="12">
@@ -877,34 +877,34 @@
         <v>21</v>
       </c>
       <c r="B12" t="n">
-        <v>55.34</v>
+        <v>61.52</v>
       </c>
       <c r="C12" t="n">
-        <v>55.51</v>
+        <v>61.69</v>
       </c>
       <c r="D12" t="n">
-        <v>55.68</v>
+        <v>61.85</v>
       </c>
       <c r="E12" t="n">
-        <v>55.86</v>
+        <v>62.01</v>
       </c>
       <c r="F12" t="n">
-        <v>56.03</v>
+        <v>62.18</v>
       </c>
       <c r="G12" t="n">
-        <v>56.2</v>
+        <v>62.34</v>
       </c>
       <c r="H12" t="n">
-        <v>56.35</v>
+        <v>62.48</v>
       </c>
       <c r="I12" t="n">
-        <v>56.5</v>
+        <v>62.63</v>
       </c>
       <c r="J12" t="n">
-        <v>56.65</v>
+        <v>62.77</v>
       </c>
       <c r="K12" t="n">
-        <v>56.78</v>
+        <v>62.89</v>
       </c>
     </row>
     <row r="13">
@@ -912,34 +912,34 @@
         <v>22</v>
       </c>
       <c r="B13" t="n">
-        <v>1902.92</v>
+        <v>1821.05</v>
       </c>
       <c r="C13" t="n">
-        <v>1921.34</v>
+        <v>1838.61</v>
       </c>
       <c r="D13" t="n">
-        <v>1939.74</v>
+        <v>1856.16</v>
       </c>
       <c r="E13" t="n">
-        <v>1958.16</v>
+        <v>1873.73</v>
       </c>
       <c r="F13" t="n">
-        <v>1976.58</v>
+        <v>1891.3</v>
       </c>
       <c r="G13" t="n">
-        <v>1994.97</v>
+        <v>1908.84</v>
       </c>
       <c r="H13" t="n">
-        <v>2011.44</v>
+        <v>1924.55</v>
       </c>
       <c r="I13" t="n">
-        <v>2027.92</v>
+        <v>1940.26</v>
       </c>
       <c r="J13" t="n">
-        <v>2044.39</v>
+        <v>1955.97</v>
       </c>
       <c r="K13" t="n">
-        <v>2060.86</v>
+        <v>1971.68</v>
       </c>
     </row>
     <row r="14">
@@ -947,34 +947,34 @@
         <v>23</v>
       </c>
       <c r="B14" t="n">
-        <v>1305.34</v>
+        <v>1249.37</v>
       </c>
       <c r="C14" t="n">
-        <v>1313.12</v>
+        <v>1256.78</v>
       </c>
       <c r="D14" t="n">
-        <v>1320.89</v>
+        <v>1264.2</v>
       </c>
       <c r="E14" t="n">
-        <v>1328.69</v>
+        <v>1271.63</v>
       </c>
       <c r="F14" t="n">
-        <v>1336.46</v>
+        <v>1279.05</v>
       </c>
       <c r="G14" t="n">
-        <v>1344.24</v>
+        <v>1286.46</v>
       </c>
       <c r="H14" t="n">
-        <v>1351.31</v>
+        <v>1293.2</v>
       </c>
       <c r="I14" t="n">
-        <v>1358.35</v>
+        <v>1299.92</v>
       </c>
       <c r="J14" t="n">
-        <v>1365.4</v>
+        <v>1306.64</v>
       </c>
       <c r="K14" t="n">
-        <v>1372.45</v>
+        <v>1313.36</v>
       </c>
     </row>
     <row r="15">
@@ -982,34 +982,34 @@
         <v>24</v>
       </c>
       <c r="B15" t="n">
-        <v>382.39</v>
+        <v>372.1</v>
       </c>
       <c r="C15" t="n">
-        <v>383.18</v>
+        <v>372.85</v>
       </c>
       <c r="D15" t="n">
-        <v>383.97</v>
+        <v>373.61</v>
       </c>
       <c r="E15" t="n">
-        <v>384.77</v>
+        <v>374.36</v>
       </c>
       <c r="F15" t="n">
-        <v>385.56</v>
+        <v>375.12</v>
       </c>
       <c r="G15" t="n">
-        <v>386.35</v>
+        <v>375.88</v>
       </c>
       <c r="H15" t="n">
-        <v>386.93</v>
+        <v>376.43</v>
       </c>
       <c r="I15" t="n">
-        <v>387.49</v>
+        <v>376.96</v>
       </c>
       <c r="J15" t="n">
-        <v>388.06</v>
+        <v>377.51</v>
       </c>
       <c r="K15" t="n">
-        <v>388.62</v>
+        <v>378.04</v>
       </c>
     </row>
     <row r="16">
@@ -1017,34 +1017,34 @@
         <v>25</v>
       </c>
       <c r="B16" t="n">
-        <v>281.62</v>
+        <v>277.56</v>
       </c>
       <c r="C16" t="n">
-        <v>283.74</v>
+        <v>279.58</v>
       </c>
       <c r="D16" t="n">
-        <v>285.86</v>
+        <v>281.6</v>
       </c>
       <c r="E16" t="n">
-        <v>288</v>
+        <v>283.64</v>
       </c>
       <c r="F16" t="n">
-        <v>290.12</v>
+        <v>285.67</v>
       </c>
       <c r="G16" t="n">
-        <v>292.25</v>
+        <v>287.69</v>
       </c>
       <c r="H16" t="n">
-        <v>294.26</v>
+        <v>289.61</v>
       </c>
       <c r="I16" t="n">
-        <v>296.29</v>
+        <v>291.55</v>
       </c>
       <c r="J16" t="n">
-        <v>298.31</v>
+        <v>293.47</v>
       </c>
       <c r="K16" t="n">
-        <v>300.32</v>
+        <v>295.39</v>
       </c>
     </row>
     <row r="17">
@@ -1052,34 +1052,34 @@
         <v>26</v>
       </c>
       <c r="B17" t="n">
-        <v>641.76</v>
+        <v>622.15</v>
       </c>
       <c r="C17" t="n">
-        <v>652.42</v>
+        <v>632.33</v>
       </c>
       <c r="D17" t="n">
-        <v>663.07</v>
+        <v>642.48</v>
       </c>
       <c r="E17" t="n">
-        <v>673.71</v>
+        <v>652.63</v>
       </c>
       <c r="F17" t="n">
-        <v>684.38</v>
+        <v>662.8</v>
       </c>
       <c r="G17" t="n">
-        <v>695.02</v>
+        <v>672.96</v>
       </c>
       <c r="H17" t="n">
-        <v>704.66</v>
+        <v>682.15</v>
       </c>
       <c r="I17" t="n">
-        <v>714.3</v>
+        <v>691.34</v>
       </c>
       <c r="J17" t="n">
-        <v>723.96</v>
+        <v>700.55</v>
       </c>
       <c r="K17" t="n">
-        <v>733.6</v>
+        <v>709.75</v>
       </c>
     </row>
     <row r="18">
@@ -1087,34 +1087,34 @@
         <v>27</v>
       </c>
       <c r="B18" t="n">
-        <v>1194.56</v>
+        <v>1149.74</v>
       </c>
       <c r="C18" t="n">
-        <v>1203.62</v>
+        <v>1158.38</v>
       </c>
       <c r="D18" t="n">
-        <v>1212.7</v>
+        <v>1167.04</v>
       </c>
       <c r="E18" t="n">
-        <v>1221.76</v>
+        <v>1175.68</v>
       </c>
       <c r="F18" t="n">
-        <v>1230.82</v>
+        <v>1184.32</v>
       </c>
       <c r="G18" t="n">
-        <v>1239.9</v>
+        <v>1192.98</v>
       </c>
       <c r="H18" t="n">
-        <v>1247.14</v>
+        <v>1199.89</v>
       </c>
       <c r="I18" t="n">
-        <v>1254.38</v>
+        <v>1206.79</v>
       </c>
       <c r="J18" t="n">
-        <v>1261.62</v>
+        <v>1213.7</v>
       </c>
       <c r="K18" t="n">
-        <v>1268.86</v>
+        <v>1220.6</v>
       </c>
     </row>
     <row r="19">
@@ -1122,34 +1122,34 @@
         <v>28</v>
       </c>
       <c r="B19" t="n">
-        <v>594.86</v>
+        <v>577.31</v>
       </c>
       <c r="C19" t="n">
+        <v>580.25</v>
+      </c>
+      <c r="D19" t="n">
+        <v>583.17</v>
+      </c>
+      <c r="E19" t="n">
+        <v>586.12</v>
+      </c>
+      <c r="F19" t="n">
+        <v>589.04</v>
+      </c>
+      <c r="G19" t="n">
+        <v>591.98</v>
+      </c>
+      <c r="H19" t="n">
+        <v>593.96</v>
+      </c>
+      <c r="I19" t="n">
+        <v>595.96</v>
+      </c>
+      <c r="J19" t="n">
         <v>597.94</v>
       </c>
-      <c r="D19" t="n">
-        <v>601</v>
-      </c>
-      <c r="E19" t="n">
-        <v>604.09</v>
-      </c>
-      <c r="F19" t="n">
-        <v>607.15</v>
-      </c>
-      <c r="G19" t="n">
-        <v>610.24</v>
-      </c>
-      <c r="H19" t="n">
-        <v>612.31</v>
-      </c>
-      <c r="I19" t="n">
-        <v>614.41</v>
-      </c>
-      <c r="J19" t="n">
-        <v>616.49</v>
-      </c>
       <c r="K19" t="n">
-        <v>618.59</v>
+        <v>599.95</v>
       </c>
     </row>
     <row r="20">
@@ -1157,34 +1157,34 @@
         <v>29</v>
       </c>
       <c r="B20" t="n">
-        <v>21.14</v>
+        <v>28.92</v>
       </c>
       <c r="C20" t="n">
-        <v>21.14</v>
+        <v>28.92</v>
       </c>
       <c r="D20" t="n">
-        <v>21.17</v>
+        <v>28.94</v>
       </c>
       <c r="E20" t="n">
-        <v>21.17</v>
+        <v>28.94</v>
       </c>
       <c r="F20" t="n">
-        <v>21.17</v>
+        <v>28.94</v>
       </c>
       <c r="G20" t="n">
-        <v>21.19</v>
+        <v>28.96</v>
       </c>
       <c r="H20" t="n">
-        <v>21.19</v>
+        <v>28.96</v>
       </c>
       <c r="I20" t="n">
-        <v>21.19</v>
+        <v>28.96</v>
       </c>
       <c r="J20" t="n">
-        <v>21.19</v>
+        <v>28.96</v>
       </c>
       <c r="K20" t="n">
-        <v>21.19</v>
+        <v>28.96</v>
       </c>
     </row>
     <row r="21">
@@ -1192,34 +1192,34 @@
         <v>30</v>
       </c>
       <c r="B21" t="n">
-        <v>2273.48</v>
+        <v>2174.1</v>
       </c>
       <c r="C21" t="n">
-        <v>2295.58</v>
+        <v>2195.18</v>
       </c>
       <c r="D21" t="n">
-        <v>2317.67</v>
+        <v>2216.24</v>
       </c>
       <c r="E21" t="n">
-        <v>2339.75</v>
+        <v>2237.3</v>
       </c>
       <c r="F21" t="n">
-        <v>2361.83</v>
+        <v>2258.36</v>
       </c>
       <c r="G21" t="n">
-        <v>2383.93</v>
+        <v>2279.44</v>
       </c>
       <c r="H21" t="n">
-        <v>2402.7</v>
+        <v>2297.33</v>
       </c>
       <c r="I21" t="n">
-        <v>2421.48</v>
+        <v>2315.25</v>
       </c>
       <c r="J21" t="n">
-        <v>2440.26</v>
+        <v>2333.16</v>
       </c>
       <c r="K21" t="n">
-        <v>2459.05</v>
+        <v>2351.08</v>
       </c>
     </row>
     <row r="22">
@@ -1227,34 +1227,34 @@
         <v>31</v>
       </c>
       <c r="B22" t="n">
-        <v>2815.9</v>
+        <v>2693.49</v>
       </c>
       <c r="C22" t="n">
-        <v>2836.76</v>
+        <v>2713.39</v>
       </c>
       <c r="D22" t="n">
-        <v>2857.63</v>
+        <v>2733.28</v>
       </c>
       <c r="E22" t="n">
-        <v>2878.51</v>
+        <v>2753.2</v>
       </c>
       <c r="F22" t="n">
-        <v>2899.37</v>
+        <v>2773.09</v>
       </c>
       <c r="G22" t="n">
-        <v>2920.23</v>
+        <v>2792.99</v>
       </c>
       <c r="H22" t="n">
-        <v>2937.99</v>
+        <v>2809.93</v>
       </c>
       <c r="I22" t="n">
-        <v>2955.72</v>
+        <v>2826.84</v>
       </c>
       <c r="J22" t="n">
-        <v>2973.48</v>
+        <v>2843.77</v>
       </c>
       <c r="K22" t="n">
-        <v>2991.21</v>
+        <v>2860.69</v>
       </c>
     </row>
     <row r="23">
@@ -1262,34 +1262,34 @@
         <v>32</v>
       </c>
       <c r="B23" t="n">
-        <v>-215.33</v>
+        <v>-194.6</v>
       </c>
       <c r="C23" t="n">
-        <v>-214.71</v>
+        <v>-194.01</v>
       </c>
       <c r="D23" t="n">
-        <v>-214.09</v>
+        <v>-193.42</v>
       </c>
       <c r="E23" t="n">
-        <v>-213.44</v>
+        <v>-192.8</v>
       </c>
       <c r="F23" t="n">
-        <v>-212.82</v>
+        <v>-192.21</v>
       </c>
       <c r="G23" t="n">
-        <v>-212.2</v>
+        <v>-191.62</v>
       </c>
       <c r="H23" t="n">
-        <v>-211.62</v>
+        <v>-191.07</v>
       </c>
       <c r="I23" t="n">
-        <v>-211.07</v>
+        <v>-190.54</v>
       </c>
       <c r="J23" t="n">
-        <v>-210.49</v>
+        <v>-189.99</v>
       </c>
       <c r="K23" t="n">
-        <v>-209.93</v>
+        <v>-189.45</v>
       </c>
     </row>
     <row r="24">
@@ -1297,34 +1297,34 @@
         <v>33</v>
       </c>
       <c r="B24" t="n">
-        <v>-212.09</v>
+        <v>-191.52</v>
       </c>
       <c r="C24" t="n">
-        <v>-211.45</v>
+        <v>-190.9</v>
       </c>
       <c r="D24" t="n">
-        <v>-210.78</v>
+        <v>-190.27</v>
       </c>
       <c r="E24" t="n">
-        <v>-210.14</v>
+        <v>-189.66</v>
       </c>
       <c r="F24" t="n">
-        <v>-209.48</v>
+        <v>-189.02</v>
       </c>
       <c r="G24" t="n">
-        <v>-208.83</v>
+        <v>-188.41</v>
       </c>
       <c r="H24" t="n">
-        <v>-208.23</v>
+        <v>-187.84</v>
       </c>
       <c r="I24" t="n">
-        <v>-207.66</v>
+        <v>-187.29</v>
       </c>
       <c r="J24" t="n">
-        <v>-207.06</v>
+        <v>-186.72</v>
       </c>
       <c r="K24" t="n">
-        <v>-206.48</v>
+        <v>-186.17</v>
       </c>
     </row>
     <row r="25">
@@ -1332,34 +1332,34 @@
         <v>34</v>
       </c>
       <c r="B25" t="n">
-        <v>-297.35</v>
+        <v>-272.56</v>
       </c>
       <c r="C25" t="n">
-        <v>-297.11</v>
+        <v>-272.34</v>
       </c>
       <c r="D25" t="n">
-        <v>-296.88</v>
+        <v>-272.11</v>
       </c>
       <c r="E25" t="n">
-        <v>-296.62</v>
+        <v>-271.87</v>
       </c>
       <c r="F25" t="n">
-        <v>-296.39</v>
+        <v>-271.64</v>
       </c>
       <c r="G25" t="n">
-        <v>-296.15</v>
+        <v>-271.42</v>
       </c>
       <c r="H25" t="n">
-        <v>-295.94</v>
+        <v>-271.21</v>
       </c>
       <c r="I25" t="n">
-        <v>-295.7</v>
+        <v>-270.99</v>
       </c>
       <c r="J25" t="n">
-        <v>-295.49</v>
+        <v>-270.78</v>
       </c>
       <c r="K25" t="n">
-        <v>-295.27</v>
+        <v>-270.58</v>
       </c>
     </row>
     <row r="26">
@@ -1367,34 +1367,34 @@
         <v>35</v>
       </c>
       <c r="B26" t="n">
-        <v>-87.02</v>
+        <v>-73.22</v>
       </c>
       <c r="C26" t="n">
-        <v>-86.57</v>
+        <v>-72.79</v>
       </c>
       <c r="D26" t="n">
-        <v>-86.14</v>
+        <v>-72.38</v>
       </c>
       <c r="E26" t="n">
-        <v>-85.72</v>
+        <v>-71.98</v>
       </c>
       <c r="F26" t="n">
-        <v>-85.27</v>
+        <v>-71.55</v>
       </c>
       <c r="G26" t="n">
-        <v>-84.84</v>
+        <v>-71.14</v>
       </c>
       <c r="H26" t="n">
-        <v>-84.45</v>
+        <v>-70.77</v>
       </c>
       <c r="I26" t="n">
-        <v>-84.05</v>
+        <v>-70.38</v>
       </c>
       <c r="J26" t="n">
-        <v>-83.66</v>
+        <v>-70.01</v>
       </c>
       <c r="K26" t="n">
-        <v>-83.27</v>
+        <v>-69.65</v>
       </c>
     </row>
     <row r="27">
@@ -1402,34 +1402,34 @@
         <v>36</v>
       </c>
       <c r="B27" t="n">
-        <v>702.13</v>
+        <v>680.12</v>
       </c>
       <c r="C27" t="n">
-        <v>704.89</v>
+        <v>682.76</v>
       </c>
       <c r="D27" t="n">
-        <v>707.66</v>
+        <v>685.39</v>
       </c>
       <c r="E27" t="n">
-        <v>710.42</v>
+        <v>688.03</v>
       </c>
       <c r="F27" t="n">
-        <v>713.16</v>
+        <v>690.64</v>
       </c>
       <c r="G27" t="n">
-        <v>715.92</v>
+        <v>693.28</v>
       </c>
       <c r="H27" t="n">
-        <v>717.34</v>
+        <v>694.63</v>
       </c>
       <c r="I27" t="n">
-        <v>718.77</v>
+        <v>696</v>
       </c>
       <c r="J27" t="n">
-        <v>720.19</v>
+        <v>697.34</v>
       </c>
       <c r="K27" t="n">
-        <v>721.6</v>
+        <v>698.69</v>
       </c>
     </row>
     <row r="28">
@@ -1437,34 +1437,34 @@
         <v>37</v>
       </c>
       <c r="B28" t="n">
-        <v>-100.59</v>
+        <v>-86.16</v>
       </c>
       <c r="C28" t="n">
-        <v>-99.8</v>
+        <v>-85.4</v>
       </c>
       <c r="D28" t="n">
-        <v>-98.98</v>
+        <v>-84.63</v>
       </c>
       <c r="E28" t="n">
-        <v>-98.19</v>
+        <v>-83.87</v>
       </c>
       <c r="F28" t="n">
-        <v>-97.4</v>
+        <v>-83.12</v>
       </c>
       <c r="G28" t="n">
-        <v>-96.61</v>
+        <v>-82.36</v>
       </c>
       <c r="H28" t="n">
-        <v>-95.73</v>
+        <v>-81.52</v>
       </c>
       <c r="I28" t="n">
-        <v>-94.87</v>
+        <v>-80.71</v>
       </c>
       <c r="J28" t="n">
-        <v>-93.99</v>
+        <v>-79.87</v>
       </c>
       <c r="K28" t="n">
-        <v>-93.12</v>
+        <v>-79.03</v>
       </c>
     </row>
     <row r="29">
@@ -1472,34 +1472,34 @@
         <v>38</v>
       </c>
       <c r="B29" t="n">
-        <v>1321.7</v>
+        <v>1264.98</v>
       </c>
       <c r="C29" t="n">
-        <v>1325.9</v>
+        <v>1268.99</v>
       </c>
       <c r="D29" t="n">
-        <v>1330.08</v>
+        <v>1272.97</v>
       </c>
       <c r="E29" t="n">
-        <v>1334.28</v>
+        <v>1276.97</v>
       </c>
       <c r="F29" t="n">
-        <v>1338.48</v>
+        <v>1280.98</v>
       </c>
       <c r="G29" t="n">
-        <v>1342.67</v>
+        <v>1284.98</v>
       </c>
       <c r="H29" t="n">
-        <v>1345.97</v>
+        <v>1288.13</v>
       </c>
       <c r="I29" t="n">
-        <v>1349.27</v>
+        <v>1291.27</v>
       </c>
       <c r="J29" t="n">
-        <v>1352.55</v>
+        <v>1294.4</v>
       </c>
       <c r="K29" t="n">
-        <v>1355.85</v>
+        <v>1297.54</v>
       </c>
     </row>
     <row r="30">
@@ -1507,34 +1507,34 @@
         <v>39</v>
       </c>
       <c r="B30" t="n">
-        <v>2384.72</v>
+        <v>2278.71</v>
       </c>
       <c r="C30" t="n">
-        <v>2403.4</v>
+        <v>2296.52</v>
       </c>
       <c r="D30" t="n">
-        <v>2422.07</v>
+        <v>2314.34</v>
       </c>
       <c r="E30" t="n">
-        <v>2440.75</v>
+        <v>2332.15</v>
       </c>
       <c r="F30" t="n">
-        <v>2459.45</v>
+        <v>2349.98</v>
       </c>
       <c r="G30" t="n">
-        <v>2478.13</v>
+        <v>2367.79</v>
       </c>
       <c r="H30" t="n">
-        <v>2493.35</v>
+        <v>2382.32</v>
       </c>
       <c r="I30" t="n">
-        <v>2508.58</v>
+        <v>2396.84</v>
       </c>
       <c r="J30" t="n">
-        <v>2523.81</v>
+        <v>2411.37</v>
       </c>
       <c r="K30" t="n">
-        <v>2539.06</v>
+        <v>2425.91</v>
       </c>
     </row>
     <row r="31">
@@ -1542,34 +1542,34 @@
         <v>40</v>
       </c>
       <c r="B31" t="n">
-        <v>-231.28</v>
+        <v>-210.06</v>
       </c>
       <c r="C31" t="n">
-        <v>-231.15</v>
+        <v>-209.94</v>
       </c>
       <c r="D31" t="n">
-        <v>-231.02</v>
+        <v>-209.82</v>
       </c>
       <c r="E31" t="n">
-        <v>-230.89</v>
+        <v>-209.7</v>
       </c>
       <c r="F31" t="n">
-        <v>-230.74</v>
+        <v>-209.55</v>
       </c>
       <c r="G31" t="n">
-        <v>-230.62</v>
+        <v>-209.43</v>
       </c>
       <c r="H31" t="n">
-        <v>-230.49</v>
+        <v>-209.31</v>
       </c>
       <c r="I31" t="n">
-        <v>-230.38</v>
+        <v>-209.21</v>
       </c>
       <c r="J31" t="n">
-        <v>-230.25</v>
+        <v>-209.08</v>
       </c>
       <c r="K31" t="n">
-        <v>-230.12</v>
+        <v>-208.96</v>
       </c>
     </row>
     <row r="32">
@@ -1577,34 +1577,34 @@
         <v>41</v>
       </c>
       <c r="B32" t="n">
-        <v>1370.43</v>
+        <v>1317.66</v>
       </c>
       <c r="C32" t="n">
-        <v>1375.34</v>
+        <v>1322.34</v>
       </c>
       <c r="D32" t="n">
-        <v>1380.24</v>
+        <v>1327.02</v>
       </c>
       <c r="E32" t="n">
-        <v>1385.15</v>
+        <v>1331.7</v>
       </c>
       <c r="F32" t="n">
-        <v>1390.03</v>
+        <v>1336.36</v>
       </c>
       <c r="G32" t="n">
-        <v>1394.93</v>
+        <v>1341.03</v>
       </c>
       <c r="H32" t="n">
-        <v>1397.23</v>
+        <v>1343.22</v>
       </c>
       <c r="I32" t="n">
-        <v>1399.54</v>
+        <v>1345.42</v>
       </c>
       <c r="J32" t="n">
-        <v>1401.83</v>
+        <v>1347.61</v>
       </c>
       <c r="K32" t="n">
-        <v>1404.12</v>
+        <v>1349.8</v>
       </c>
     </row>
     <row r="33">
@@ -1612,34 +1612,34 @@
         <v>42</v>
       </c>
       <c r="B33" t="n">
-        <v>426.24</v>
+        <v>417.93</v>
       </c>
       <c r="C33" t="n">
-        <v>430.13</v>
+        <v>421.64</v>
       </c>
       <c r="D33" t="n">
-        <v>434.05</v>
+        <v>425.38</v>
       </c>
       <c r="E33" t="n">
-        <v>437.95</v>
+        <v>429.1</v>
       </c>
       <c r="F33" t="n">
-        <v>441.85</v>
+        <v>432.82</v>
       </c>
       <c r="G33" t="n">
-        <v>445.75</v>
+        <v>436.54</v>
       </c>
       <c r="H33" t="n">
-        <v>448.19</v>
+        <v>438.86</v>
       </c>
       <c r="I33" t="n">
-        <v>450.63</v>
+        <v>441.19</v>
       </c>
       <c r="J33" t="n">
-        <v>453.07</v>
+        <v>443.52</v>
       </c>
       <c r="K33" t="n">
-        <v>455.51</v>
+        <v>445.85</v>
       </c>
     </row>
     <row r="34">
@@ -1647,34 +1647,34 @@
         <v>43</v>
       </c>
       <c r="B34" t="n">
-        <v>-219.33</v>
+        <v>-198.27</v>
       </c>
       <c r="C34" t="n">
-        <v>-218.52</v>
+        <v>-197.49</v>
       </c>
       <c r="D34" t="n">
-        <v>-217.7</v>
+        <v>-196.71</v>
       </c>
       <c r="E34" t="n">
-        <v>-216.91</v>
+        <v>-195.96</v>
       </c>
       <c r="F34" t="n">
-        <v>-216.1</v>
+        <v>-195.18</v>
       </c>
       <c r="G34" t="n">
-        <v>-215.28</v>
+        <v>-194.4</v>
       </c>
       <c r="H34" t="n">
-        <v>-214.56</v>
+        <v>-193.71</v>
       </c>
       <c r="I34" t="n">
-        <v>-213.83</v>
+        <v>-193.02</v>
       </c>
       <c r="J34" t="n">
-        <v>-213.1</v>
+        <v>-192.32</v>
       </c>
       <c r="K34" t="n">
-        <v>-212.37</v>
+        <v>-191.63</v>
       </c>
     </row>
     <row r="35">
@@ -1682,34 +1682,34 @@
         <v>44</v>
       </c>
       <c r="B35" t="n">
-        <v>4706.96</v>
+        <v>4499.62</v>
       </c>
       <c r="C35" t="n">
-        <v>4758.15</v>
+        <v>4548.44</v>
       </c>
       <c r="D35" t="n">
-        <v>4809.34</v>
+        <v>4597.26</v>
       </c>
       <c r="E35" t="n">
-        <v>4860.55</v>
+        <v>4646.1</v>
       </c>
       <c r="F35" t="n">
-        <v>4911.74</v>
+        <v>4694.92</v>
       </c>
       <c r="G35" t="n">
-        <v>4962.95</v>
+        <v>4743.76</v>
       </c>
       <c r="H35" t="n">
-        <v>5001.95</v>
+        <v>4780.96</v>
       </c>
       <c r="I35" t="n">
-        <v>5040.94</v>
+        <v>4818.14</v>
       </c>
       <c r="J35" t="n">
-        <v>5079.94</v>
+        <v>4855.34</v>
       </c>
       <c r="K35" t="n">
-        <v>5118.94</v>
+        <v>4892.54</v>
       </c>
     </row>
     <row r="36">
@@ -1717,34 +1717,34 @@
         <v>45</v>
       </c>
       <c r="B36" t="n">
-        <v>416.45</v>
+        <v>404.93</v>
       </c>
       <c r="C36" t="n">
-        <v>419</v>
+        <v>407.36</v>
       </c>
       <c r="D36" t="n">
-        <v>421.55</v>
+        <v>409.79</v>
       </c>
       <c r="E36" t="n">
-        <v>424.08</v>
+        <v>412.2</v>
       </c>
       <c r="F36" t="n">
-        <v>426.62</v>
+        <v>414.63</v>
       </c>
       <c r="G36" t="n">
-        <v>429.17</v>
+        <v>417.06</v>
       </c>
       <c r="H36" t="n">
-        <v>431.44</v>
+        <v>419.23</v>
       </c>
       <c r="I36" t="n">
-        <v>433.71</v>
+        <v>421.39</v>
       </c>
       <c r="J36" t="n">
-        <v>436.01</v>
+        <v>423.58</v>
       </c>
       <c r="K36" t="n">
-        <v>438.28</v>
+        <v>425.74</v>
       </c>
     </row>
     <row r="37">
@@ -1752,34 +1752,34 @@
         <v>46</v>
       </c>
       <c r="B37" t="n">
-        <v>2307.41</v>
+        <v>2208.16</v>
       </c>
       <c r="C37" t="n">
-        <v>2317.67</v>
+        <v>2217.95</v>
       </c>
       <c r="D37" t="n">
-        <v>2327.95</v>
+        <v>2227.75</v>
       </c>
       <c r="E37" t="n">
-        <v>2338.21</v>
+        <v>2237.54</v>
       </c>
       <c r="F37" t="n">
-        <v>2348.47</v>
+        <v>2247.32</v>
       </c>
       <c r="G37" t="n">
-        <v>2358.75</v>
+        <v>2257.13</v>
       </c>
       <c r="H37" t="n">
-        <v>2365.79</v>
+        <v>2263.85</v>
       </c>
       <c r="I37" t="n">
-        <v>2372.84</v>
+        <v>2270.57</v>
       </c>
       <c r="J37" t="n">
-        <v>2379.89</v>
+        <v>2277.29</v>
       </c>
       <c r="K37" t="n">
-        <v>2386.93</v>
+        <v>2284.01</v>
       </c>
     </row>
     <row r="38">
@@ -1787,34 +1787,34 @@
         <v>47</v>
       </c>
       <c r="B38" t="n">
-        <v>29488.55</v>
+        <v>28441.76</v>
       </c>
       <c r="C38" t="n">
-        <v>29754.56</v>
+        <v>28695.46</v>
       </c>
       <c r="D38" t="n">
-        <v>30020.6</v>
+        <v>28949.18</v>
       </c>
       <c r="E38" t="n">
-        <v>30286.61</v>
+        <v>29202.82</v>
       </c>
       <c r="F38" t="n">
-        <v>30552.52</v>
+        <v>29456.5</v>
       </c>
       <c r="G38" t="n">
-        <v>30818.55</v>
+        <v>29710.21</v>
       </c>
       <c r="H38" t="n">
-        <v>31041.58</v>
+        <v>29922.95</v>
       </c>
       <c r="I38" t="n">
-        <v>31264.67</v>
+        <v>30135.69</v>
       </c>
       <c r="J38" t="n">
-        <v>31487.85</v>
+        <v>30348.52</v>
       </c>
       <c r="K38" t="n">
-        <v>31710.89</v>
+        <v>30561.23</v>
       </c>
     </row>
   </sheetData>

--- a/Data/wheat_prediction.xlsx
+++ b/Data/wheat_prediction.xlsx
@@ -12,11 +12,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t xml:space="preserve">State.UT</t>
   </si>
   <si>
+    <t xml:space="preserve">2020</t>
+  </si>
+  <si>
     <t xml:space="preserve">2021</t>
   </si>
   <si>
@@ -35,127 +38,226 @@
     <t xml:space="preserve">2026</t>
   </si>
   <si>
-    <t xml:space="preserve">2027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2030</t>
-  </si>
-  <si>
     <t xml:space="preserve">A&amp;N ISLANDS</t>
   </si>
   <si>
+    <t xml:space="preserve">-42.8</t>
+  </si>
+  <si>
     <t xml:space="preserve">ANDHRA PR</t>
   </si>
   <si>
+    <t xml:space="preserve">797.25</t>
+  </si>
+  <si>
     <t xml:space="preserve">ARUNACHAL</t>
   </si>
   <si>
+    <t xml:space="preserve">-280.81</t>
+  </si>
+  <si>
     <t xml:space="preserve">ASSAM</t>
   </si>
   <si>
+    <t xml:space="preserve">563.57</t>
+  </si>
+  <si>
     <t xml:space="preserve">BIHAR</t>
   </si>
   <si>
+    <t xml:space="preserve">2882.26</t>
+  </si>
+  <si>
     <t xml:space="preserve">CHANDIGARH</t>
   </si>
   <si>
+    <t xml:space="preserve">624.94</t>
+  </si>
+  <si>
     <t xml:space="preserve">CHHATTISGARH</t>
   </si>
   <si>
+    <t xml:space="preserve">415.36</t>
+  </si>
+  <si>
     <t xml:space="preserve">D&amp;N HAVELI</t>
   </si>
   <si>
+    <t xml:space="preserve">-70.98</t>
+  </si>
+  <si>
     <t xml:space="preserve">DAMAN &amp; DIU</t>
   </si>
   <si>
+    <t xml:space="preserve">216.63</t>
+  </si>
+  <si>
     <t xml:space="preserve">DELHI</t>
   </si>
   <si>
+    <t xml:space="preserve">984.87</t>
+  </si>
+  <si>
     <t xml:space="preserve">GOA</t>
   </si>
   <si>
+    <t xml:space="preserve">56.2</t>
+  </si>
+  <si>
     <t xml:space="preserve">GUJARAT</t>
   </si>
   <si>
+    <t xml:space="preserve">1994.97</t>
+  </si>
+  <si>
     <t xml:space="preserve">HARYANA</t>
   </si>
   <si>
+    <t xml:space="preserve">1344.24</t>
+  </si>
+  <si>
     <t xml:space="preserve">HIMACHAL</t>
   </si>
   <si>
+    <t xml:space="preserve">386.35</t>
+  </si>
+  <si>
     <t xml:space="preserve">J &amp; K</t>
   </si>
   <si>
+    <t xml:space="preserve">292.25</t>
+  </si>
+  <si>
     <t xml:space="preserve">JHARKHAND</t>
   </si>
   <si>
+    <t xml:space="preserve">695.02</t>
+  </si>
+  <si>
     <t xml:space="preserve">KARNATAKA</t>
   </si>
   <si>
+    <t xml:space="preserve">1239.9</t>
+  </si>
+  <si>
     <t xml:space="preserve">KERALA</t>
   </si>
   <si>
+    <t xml:space="preserve">610.24</t>
+  </si>
+  <si>
     <t xml:space="preserve">LAKSHADWEEP</t>
   </si>
   <si>
+    <t xml:space="preserve">21.19</t>
+  </si>
+  <si>
     <t xml:space="preserve">MADHYA PR</t>
   </si>
   <si>
+    <t xml:space="preserve">2383.93</t>
+  </si>
+  <si>
     <t xml:space="preserve">MAHARASHTRA</t>
   </si>
   <si>
+    <t xml:space="preserve">2920.23</t>
+  </si>
+  <si>
     <t xml:space="preserve">MANIPUR</t>
   </si>
   <si>
+    <t xml:space="preserve">-212.2</t>
+  </si>
+  <si>
     <t xml:space="preserve">MEGHALAYA</t>
   </si>
   <si>
+    <t xml:space="preserve">-208.83</t>
+  </si>
+  <si>
     <t xml:space="preserve">MIZORAM</t>
   </si>
   <si>
+    <t xml:space="preserve">-296.15</t>
+  </si>
+  <si>
     <t xml:space="preserve">NAGALAND</t>
   </si>
   <si>
+    <t xml:space="preserve">-84.84</t>
+  </si>
+  <si>
     <t xml:space="preserve">ORISSA</t>
   </si>
   <si>
+    <t xml:space="preserve">715.92</t>
+  </si>
+  <si>
     <t xml:space="preserve">PONDICHERRY</t>
   </si>
   <si>
+    <t xml:space="preserve">-96.61</t>
+  </si>
+  <si>
     <t xml:space="preserve">PUNJAB</t>
   </si>
   <si>
+    <t xml:space="preserve">1342.67</t>
+  </si>
+  <si>
     <t xml:space="preserve">RAJASTHAN</t>
   </si>
   <si>
+    <t xml:space="preserve">2478.13</t>
+  </si>
+  <si>
     <t xml:space="preserve">SIKKIM</t>
   </si>
   <si>
+    <t xml:space="preserve">-230.62</t>
+  </si>
+  <si>
     <t xml:space="preserve">TAMILNADU</t>
   </si>
   <si>
+    <t xml:space="preserve">1394.93</t>
+  </si>
+  <si>
     <t xml:space="preserve">TELANGANA</t>
   </si>
   <si>
+    <t xml:space="preserve">445.75</t>
+  </si>
+  <si>
     <t xml:space="preserve">TRIPURA</t>
   </si>
   <si>
+    <t xml:space="preserve">-215.28</t>
+  </si>
+  <si>
     <t xml:space="preserve">UTTAR PR</t>
   </si>
   <si>
+    <t xml:space="preserve">4962.95</t>
+  </si>
+  <si>
     <t xml:space="preserve">UTTRANCHAL</t>
   </si>
   <si>
+    <t xml:space="preserve">429.17</t>
+  </si>
+  <si>
     <t xml:space="preserve">WEST BENGAL</t>
   </si>
   <si>
+    <t xml:space="preserve">2358.75</t>
+  </si>
+  <si>
     <t xml:space="preserve">All India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30818.55</t>
   </si>
 </sst>
 </file>
@@ -512,119 +614,83 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>-31.71</v>
+        <v>-42.95</v>
       </c>
       <c r="C2" t="n">
-        <v>-31.67</v>
+        <v>-42.93</v>
       </c>
       <c r="D2" t="n">
-        <v>-31.65</v>
+        <v>-42.89</v>
       </c>
       <c r="E2" t="n">
-        <v>-31.63</v>
+        <v>-42.86</v>
       </c>
       <c r="F2" t="n">
-        <v>-31.61</v>
+        <v>-42.84</v>
       </c>
       <c r="G2" t="n">
-        <v>-31.59</v>
-      </c>
-      <c r="H2" t="n">
-        <v>-31.57</v>
-      </c>
-      <c r="I2" t="n">
-        <v>-31.55</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-31.53</v>
-      </c>
-      <c r="K2" t="n">
-        <v>-31.51</v>
+        <v>-42.82</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>752.75</v>
+        <v>771.44</v>
       </c>
       <c r="C3" t="n">
-        <v>756.53</v>
+        <v>777.5</v>
       </c>
       <c r="D3" t="n">
-        <v>760.29</v>
+        <v>781.47</v>
       </c>
       <c r="E3" t="n">
-        <v>764.05</v>
+        <v>785.41</v>
       </c>
       <c r="F3" t="n">
-        <v>767.81</v>
+        <v>789.35</v>
       </c>
       <c r="G3" t="n">
-        <v>771.58</v>
-      </c>
-      <c r="H3" t="n">
-        <v>773.48</v>
-      </c>
-      <c r="I3" t="n">
-        <v>775.38</v>
-      </c>
-      <c r="J3" t="n">
-        <v>777.3</v>
-      </c>
-      <c r="K3" t="n">
-        <v>779.2</v>
+        <v>793.29</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-282.63</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-282.33</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-282.01</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-281.71</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-281.41</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-281.11</v>
+      </c>
+      <c r="H4" t="s">
         <v>13</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-258.29</v>
-      </c>
-      <c r="C4" t="n">
-        <v>-257.99</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-257.7</v>
-      </c>
-      <c r="E4" t="n">
-        <v>-257.41</v>
-      </c>
-      <c r="F4" t="n">
-        <v>-257.13</v>
-      </c>
-      <c r="G4" t="n">
-        <v>-256.84</v>
-      </c>
-      <c r="H4" t="n">
-        <v>-256.58</v>
-      </c>
-      <c r="I4" t="n">
-        <v>-256.31</v>
-      </c>
-      <c r="J4" t="n">
-        <v>-256.05</v>
-      </c>
-      <c r="K4" t="n">
-        <v>-255.78</v>
       </c>
     </row>
     <row r="5">
@@ -632,1189 +698,883 @@
         <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>513.66</v>
+        <v>519.69</v>
       </c>
       <c r="C5" t="n">
-        <v>520.5</v>
+        <v>527.72</v>
       </c>
       <c r="D5" t="n">
-        <v>527.35</v>
+        <v>534.89</v>
       </c>
       <c r="E5" t="n">
-        <v>534.17</v>
+        <v>542.07</v>
       </c>
       <c r="F5" t="n">
-        <v>541.01</v>
+        <v>549.22</v>
       </c>
       <c r="G5" t="n">
-        <v>547.86</v>
-      </c>
-      <c r="H5" t="n">
-        <v>553.88</v>
-      </c>
-      <c r="I5" t="n">
-        <v>559.93</v>
-      </c>
-      <c r="J5" t="n">
-        <v>565.98</v>
-      </c>
-      <c r="K5" t="n">
-        <v>572.02</v>
+        <v>556.4</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" t="n">
-        <v>2569.88</v>
+        <v>2647.45</v>
       </c>
       <c r="C6" t="n">
-        <v>2607.38</v>
+        <v>2685.59</v>
       </c>
       <c r="D6" t="n">
-        <v>2644.91</v>
+        <v>2724.92</v>
       </c>
       <c r="E6" t="n">
-        <v>2682.41</v>
+        <v>2764.26</v>
       </c>
       <c r="F6" t="n">
-        <v>2719.94</v>
+        <v>2803.59</v>
       </c>
       <c r="G6" t="n">
-        <v>2757.44</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2793.29</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2829.14</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2865.01</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2900.86</v>
+        <v>2842.93</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>599.75</v>
+        <v>623.36</v>
       </c>
       <c r="C7" t="n">
-        <v>599.97</v>
+        <v>623.68</v>
       </c>
       <c r="D7" t="n">
-        <v>600.22</v>
+        <v>623.91</v>
       </c>
       <c r="E7" t="n">
-        <v>600.46</v>
+        <v>624.17</v>
       </c>
       <c r="F7" t="n">
-        <v>600.71</v>
+        <v>624.43</v>
       </c>
       <c r="G7" t="n">
-        <v>600.95</v>
-      </c>
-      <c r="H7" t="n">
-        <v>601.16</v>
-      </c>
-      <c r="I7" t="n">
-        <v>601.36</v>
-      </c>
-      <c r="J7" t="n">
-        <v>601.58</v>
-      </c>
-      <c r="K7" t="n">
-        <v>601.79</v>
+        <v>624.68</v>
+      </c>
+      <c r="H7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>371.6</v>
+        <v>370.33</v>
       </c>
       <c r="C8" t="n">
-        <v>378.61</v>
+        <v>378.56</v>
       </c>
       <c r="D8" t="n">
-        <v>385.64</v>
+        <v>385.91</v>
       </c>
       <c r="E8" t="n">
-        <v>392.66</v>
+        <v>393.27</v>
       </c>
       <c r="F8" t="n">
-        <v>399.67</v>
+        <v>400.64</v>
       </c>
       <c r="G8" t="n">
-        <v>406.7</v>
-      </c>
-      <c r="H8" t="n">
-        <v>412.85</v>
-      </c>
-      <c r="I8" t="n">
-        <v>419.02</v>
-      </c>
-      <c r="J8" t="n">
-        <v>425.19</v>
-      </c>
-      <c r="K8" t="n">
-        <v>431.33</v>
+        <v>407.99</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B9" t="n">
-        <v>-62.88</v>
+        <v>-76.53</v>
       </c>
       <c r="C9" t="n">
-        <v>-61.94</v>
+        <v>-75.87</v>
       </c>
       <c r="D9" t="n">
-        <v>-61.02</v>
+        <v>-74.88</v>
       </c>
       <c r="E9" t="n">
-        <v>-60.08</v>
+        <v>-73.92</v>
       </c>
       <c r="F9" t="n">
-        <v>-59.16</v>
+        <v>-72.93</v>
       </c>
       <c r="G9" t="n">
-        <v>-58.22</v>
-      </c>
-      <c r="H9" t="n">
-        <v>-56.83</v>
-      </c>
-      <c r="I9" t="n">
-        <v>-55.42</v>
-      </c>
-      <c r="J9" t="n">
-        <v>-54.04</v>
-      </c>
-      <c r="K9" t="n">
-        <v>-52.65</v>
+        <v>-71.97</v>
+      </c>
+      <c r="H9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B10" t="n">
-        <v>209.34</v>
+        <v>210.98</v>
       </c>
       <c r="C10" t="n">
-        <v>210.3</v>
+        <v>211.58</v>
       </c>
       <c r="D10" t="n">
-        <v>211.28</v>
+        <v>212.59</v>
       </c>
       <c r="E10" t="n">
-        <v>212.24</v>
+        <v>213.61</v>
       </c>
       <c r="F10" t="n">
-        <v>213.2</v>
+        <v>214.62</v>
       </c>
       <c r="G10" t="n">
-        <v>214.16</v>
-      </c>
-      <c r="H10" t="n">
-        <v>215.94</v>
-      </c>
-      <c r="I10" t="n">
-        <v>217.7</v>
-      </c>
-      <c r="J10" t="n">
-        <v>219.45</v>
-      </c>
-      <c r="K10" t="n">
-        <v>221.23</v>
+        <v>215.63</v>
+      </c>
+      <c r="H10" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B11" t="n">
-        <v>904.63</v>
+        <v>934.6</v>
       </c>
       <c r="C11" t="n">
-        <v>912.68</v>
+        <v>942.69</v>
       </c>
       <c r="D11" t="n">
-        <v>920.73</v>
+        <v>951.13</v>
       </c>
       <c r="E11" t="n">
-        <v>928.76</v>
+        <v>959.57</v>
       </c>
       <c r="F11" t="n">
-        <v>936.81</v>
+        <v>967.99</v>
       </c>
       <c r="G11" t="n">
-        <v>944.86</v>
-      </c>
-      <c r="H11" t="n">
-        <v>953.07</v>
-      </c>
-      <c r="I11" t="n">
-        <v>961.3</v>
-      </c>
-      <c r="J11" t="n">
-        <v>969.51</v>
-      </c>
-      <c r="K11" t="n">
-        <v>977.74</v>
+        <v>976.43</v>
+      </c>
+      <c r="H11" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B12" t="n">
-        <v>61.52</v>
+        <v>55.13</v>
       </c>
       <c r="C12" t="n">
-        <v>61.69</v>
+        <v>55.34</v>
       </c>
       <c r="D12" t="n">
-        <v>61.85</v>
+        <v>55.51</v>
       </c>
       <c r="E12" t="n">
-        <v>62.01</v>
+        <v>55.68</v>
       </c>
       <c r="F12" t="n">
-        <v>62.18</v>
+        <v>55.86</v>
       </c>
       <c r="G12" t="n">
-        <v>62.34</v>
-      </c>
-      <c r="H12" t="n">
-        <v>62.48</v>
-      </c>
-      <c r="I12" t="n">
-        <v>62.63</v>
-      </c>
-      <c r="J12" t="n">
-        <v>62.77</v>
-      </c>
-      <c r="K12" t="n">
-        <v>62.89</v>
+        <v>56.03</v>
+      </c>
+      <c r="H12" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B13" t="n">
-        <v>1821.05</v>
+        <v>1883.08</v>
       </c>
       <c r="C13" t="n">
-        <v>1838.61</v>
+        <v>1902.92</v>
       </c>
       <c r="D13" t="n">
-        <v>1856.16</v>
+        <v>1921.34</v>
       </c>
       <c r="E13" t="n">
-        <v>1873.73</v>
+        <v>1939.74</v>
       </c>
       <c r="F13" t="n">
-        <v>1891.3</v>
+        <v>1958.16</v>
       </c>
       <c r="G13" t="n">
-        <v>1908.84</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1924.55</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1940.26</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1955.97</v>
-      </c>
-      <c r="K13" t="n">
-        <v>1971.68</v>
+        <v>1976.58</v>
+      </c>
+      <c r="H13" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>1249.37</v>
+        <v>1296.65</v>
       </c>
       <c r="C14" t="n">
-        <v>1256.78</v>
+        <v>1305.34</v>
       </c>
       <c r="D14" t="n">
-        <v>1264.2</v>
+        <v>1313.12</v>
       </c>
       <c r="E14" t="n">
-        <v>1271.63</v>
+        <v>1320.89</v>
       </c>
       <c r="F14" t="n">
-        <v>1279.05</v>
+        <v>1328.69</v>
       </c>
       <c r="G14" t="n">
-        <v>1286.46</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1293.2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1299.92</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1306.64</v>
-      </c>
-      <c r="K14" t="n">
-        <v>1313.36</v>
+        <v>1336.46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B15" t="n">
-        <v>372.1</v>
+        <v>381.38</v>
       </c>
       <c r="C15" t="n">
-        <v>372.85</v>
+        <v>382.39</v>
       </c>
       <c r="D15" t="n">
-        <v>373.61</v>
+        <v>383.18</v>
       </c>
       <c r="E15" t="n">
-        <v>374.36</v>
+        <v>383.97</v>
       </c>
       <c r="F15" t="n">
-        <v>375.12</v>
+        <v>384.77</v>
       </c>
       <c r="G15" t="n">
-        <v>375.88</v>
-      </c>
-      <c r="H15" t="n">
-        <v>376.43</v>
-      </c>
-      <c r="I15" t="n">
-        <v>376.96</v>
-      </c>
-      <c r="J15" t="n">
-        <v>377.51</v>
-      </c>
-      <c r="K15" t="n">
-        <v>378.04</v>
+        <v>385.56</v>
+      </c>
+      <c r="H15" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B16" t="n">
-        <v>277.56</v>
+        <v>279.37</v>
       </c>
       <c r="C16" t="n">
-        <v>279.58</v>
+        <v>281.62</v>
       </c>
       <c r="D16" t="n">
-        <v>281.6</v>
+        <v>283.74</v>
       </c>
       <c r="E16" t="n">
-        <v>283.64</v>
+        <v>285.86</v>
       </c>
       <c r="F16" t="n">
-        <v>285.67</v>
+        <v>288</v>
       </c>
       <c r="G16" t="n">
-        <v>287.69</v>
-      </c>
-      <c r="H16" t="n">
-        <v>289.61</v>
-      </c>
-      <c r="I16" t="n">
-        <v>291.55</v>
-      </c>
-      <c r="J16" t="n">
-        <v>293.47</v>
-      </c>
-      <c r="K16" t="n">
-        <v>295.39</v>
+        <v>290.12</v>
+      </c>
+      <c r="H16" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B17" t="n">
-        <v>622.15</v>
+        <v>630.32</v>
       </c>
       <c r="C17" t="n">
-        <v>632.33</v>
+        <v>641.76</v>
       </c>
       <c r="D17" t="n">
-        <v>642.48</v>
+        <v>652.42</v>
       </c>
       <c r="E17" t="n">
-        <v>652.63</v>
+        <v>663.07</v>
       </c>
       <c r="F17" t="n">
-        <v>662.8</v>
+        <v>673.71</v>
       </c>
       <c r="G17" t="n">
-        <v>672.96</v>
-      </c>
-      <c r="H17" t="n">
-        <v>682.15</v>
-      </c>
-      <c r="I17" t="n">
-        <v>691.34</v>
-      </c>
-      <c r="J17" t="n">
-        <v>700.55</v>
-      </c>
-      <c r="K17" t="n">
-        <v>709.75</v>
+        <v>684.38</v>
+      </c>
+      <c r="H17" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B18" t="n">
-        <v>1149.74</v>
+        <v>1183.36</v>
       </c>
       <c r="C18" t="n">
-        <v>1158.38</v>
+        <v>1194.56</v>
       </c>
       <c r="D18" t="n">
-        <v>1167.04</v>
+        <v>1203.62</v>
       </c>
       <c r="E18" t="n">
-        <v>1175.68</v>
+        <v>1212.7</v>
       </c>
       <c r="F18" t="n">
-        <v>1184.32</v>
+        <v>1221.76</v>
       </c>
       <c r="G18" t="n">
-        <v>1192.98</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1199.89</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1206.79</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1213.7</v>
-      </c>
-      <c r="K18" t="n">
-        <v>1220.6</v>
+        <v>1230.82</v>
+      </c>
+      <c r="H18" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>577.31</v>
+        <v>590.96</v>
       </c>
       <c r="C19" t="n">
-        <v>580.25</v>
+        <v>594.86</v>
       </c>
       <c r="D19" t="n">
-        <v>583.17</v>
+        <v>597.94</v>
       </c>
       <c r="E19" t="n">
-        <v>586.12</v>
+        <v>601</v>
       </c>
       <c r="F19" t="n">
-        <v>589.04</v>
+        <v>604.09</v>
       </c>
       <c r="G19" t="n">
-        <v>591.98</v>
-      </c>
-      <c r="H19" t="n">
-        <v>593.96</v>
-      </c>
-      <c r="I19" t="n">
-        <v>595.96</v>
-      </c>
-      <c r="J19" t="n">
-        <v>597.94</v>
-      </c>
-      <c r="K19" t="n">
-        <v>599.95</v>
+        <v>607.15</v>
+      </c>
+      <c r="H19" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B20" t="n">
-        <v>28.92</v>
+        <v>21.14</v>
       </c>
       <c r="C20" t="n">
-        <v>28.92</v>
+        <v>21.14</v>
       </c>
       <c r="D20" t="n">
-        <v>28.94</v>
+        <v>21.14</v>
       </c>
       <c r="E20" t="n">
-        <v>28.94</v>
+        <v>21.17</v>
       </c>
       <c r="F20" t="n">
-        <v>28.94</v>
+        <v>21.17</v>
       </c>
       <c r="G20" t="n">
-        <v>28.96</v>
-      </c>
-      <c r="H20" t="n">
-        <v>28.96</v>
-      </c>
-      <c r="I20" t="n">
-        <v>28.96</v>
-      </c>
-      <c r="J20" t="n">
-        <v>28.96</v>
-      </c>
-      <c r="K20" t="n">
-        <v>28.96</v>
+        <v>21.17</v>
+      </c>
+      <c r="H20" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="B21" t="n">
-        <v>2174.1</v>
+        <v>2249.02</v>
       </c>
       <c r="C21" t="n">
-        <v>2195.18</v>
+        <v>2273.48</v>
       </c>
       <c r="D21" t="n">
-        <v>2216.24</v>
+        <v>2295.58</v>
       </c>
       <c r="E21" t="n">
-        <v>2237.3</v>
+        <v>2317.67</v>
       </c>
       <c r="F21" t="n">
-        <v>2258.36</v>
+        <v>2339.75</v>
       </c>
       <c r="G21" t="n">
-        <v>2279.44</v>
-      </c>
-      <c r="H21" t="n">
-        <v>2297.33</v>
-      </c>
-      <c r="I21" t="n">
-        <v>2315.25</v>
-      </c>
-      <c r="J21" t="n">
-        <v>2333.16</v>
-      </c>
-      <c r="K21" t="n">
-        <v>2351.08</v>
+        <v>2361.83</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B22" t="n">
-        <v>2693.49</v>
+        <v>2791.44</v>
       </c>
       <c r="C22" t="n">
-        <v>2713.39</v>
+        <v>2815.9</v>
       </c>
       <c r="D22" t="n">
-        <v>2733.28</v>
+        <v>2836.76</v>
       </c>
       <c r="E22" t="n">
-        <v>2753.2</v>
+        <v>2857.63</v>
       </c>
       <c r="F22" t="n">
-        <v>2773.09</v>
+        <v>2878.51</v>
       </c>
       <c r="G22" t="n">
-        <v>2792.99</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2809.93</v>
-      </c>
-      <c r="I22" t="n">
-        <v>2826.84</v>
-      </c>
-      <c r="J22" t="n">
-        <v>2843.77</v>
-      </c>
-      <c r="K22" t="n">
-        <v>2860.69</v>
+        <v>2899.37</v>
+      </c>
+      <c r="H22" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="B23" t="n">
-        <v>-194.6</v>
+        <v>-215.99</v>
       </c>
       <c r="C23" t="n">
-        <v>-194.01</v>
+        <v>-215.33</v>
       </c>
       <c r="D23" t="n">
-        <v>-193.42</v>
+        <v>-214.71</v>
       </c>
       <c r="E23" t="n">
-        <v>-192.8</v>
+        <v>-214.09</v>
       </c>
       <c r="F23" t="n">
-        <v>-192.21</v>
+        <v>-213.44</v>
       </c>
       <c r="G23" t="n">
-        <v>-191.62</v>
-      </c>
-      <c r="H23" t="n">
-        <v>-191.07</v>
-      </c>
-      <c r="I23" t="n">
-        <v>-190.54</v>
-      </c>
-      <c r="J23" t="n">
-        <v>-189.99</v>
-      </c>
-      <c r="K23" t="n">
-        <v>-189.45</v>
+        <v>-212.82</v>
+      </c>
+      <c r="H23" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B24" t="n">
-        <v>-191.52</v>
+        <v>-212.77</v>
       </c>
       <c r="C24" t="n">
-        <v>-190.9</v>
+        <v>-212.09</v>
       </c>
       <c r="D24" t="n">
-        <v>-190.27</v>
+        <v>-211.45</v>
       </c>
       <c r="E24" t="n">
-        <v>-189.66</v>
+        <v>-210.78</v>
       </c>
       <c r="F24" t="n">
-        <v>-189.02</v>
+        <v>-210.14</v>
       </c>
       <c r="G24" t="n">
-        <v>-188.41</v>
-      </c>
-      <c r="H24" t="n">
-        <v>-187.84</v>
-      </c>
-      <c r="I24" t="n">
-        <v>-187.29</v>
-      </c>
-      <c r="J24" t="n">
-        <v>-186.72</v>
-      </c>
-      <c r="K24" t="n">
-        <v>-186.17</v>
+        <v>-209.48</v>
+      </c>
+      <c r="H24" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="B25" t="n">
-        <v>-272.56</v>
+        <v>-297.61</v>
       </c>
       <c r="C25" t="n">
-        <v>-272.34</v>
+        <v>-297.35</v>
       </c>
       <c r="D25" t="n">
-        <v>-272.11</v>
+        <v>-297.11</v>
       </c>
       <c r="E25" t="n">
-        <v>-271.87</v>
+        <v>-296.88</v>
       </c>
       <c r="F25" t="n">
-        <v>-271.64</v>
+        <v>-296.62</v>
       </c>
       <c r="G25" t="n">
-        <v>-271.42</v>
-      </c>
-      <c r="H25" t="n">
-        <v>-271.21</v>
-      </c>
-      <c r="I25" t="n">
-        <v>-270.99</v>
-      </c>
-      <c r="J25" t="n">
-        <v>-270.78</v>
-      </c>
-      <c r="K25" t="n">
-        <v>-270.58</v>
+        <v>-296.39</v>
+      </c>
+      <c r="H25" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="B26" t="n">
-        <v>-73.22</v>
+        <v>-87.47</v>
       </c>
       <c r="C26" t="n">
-        <v>-72.79</v>
+        <v>-87.02</v>
       </c>
       <c r="D26" t="n">
-        <v>-72.38</v>
+        <v>-86.57</v>
       </c>
       <c r="E26" t="n">
-        <v>-71.98</v>
+        <v>-86.14</v>
       </c>
       <c r="F26" t="n">
-        <v>-71.55</v>
+        <v>-85.72</v>
       </c>
       <c r="G26" t="n">
-        <v>-71.14</v>
-      </c>
-      <c r="H26" t="n">
-        <v>-70.77</v>
-      </c>
-      <c r="I26" t="n">
-        <v>-70.38</v>
-      </c>
-      <c r="J26" t="n">
-        <v>-70.01</v>
-      </c>
-      <c r="K26" t="n">
-        <v>-69.65</v>
+        <v>-85.27</v>
+      </c>
+      <c r="H26" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="B27" t="n">
-        <v>680.12</v>
+        <v>698.25</v>
       </c>
       <c r="C27" t="n">
-        <v>682.76</v>
+        <v>702.13</v>
       </c>
       <c r="D27" t="n">
-        <v>685.39</v>
+        <v>704.89</v>
       </c>
       <c r="E27" t="n">
-        <v>688.03</v>
+        <v>707.66</v>
       </c>
       <c r="F27" t="n">
-        <v>690.64</v>
+        <v>710.42</v>
       </c>
       <c r="G27" t="n">
-        <v>693.28</v>
-      </c>
-      <c r="H27" t="n">
-        <v>694.63</v>
-      </c>
-      <c r="I27" t="n">
-        <v>696</v>
-      </c>
-      <c r="J27" t="n">
-        <v>697.34</v>
-      </c>
-      <c r="K27" t="n">
-        <v>698.69</v>
+        <v>713.16</v>
+      </c>
+      <c r="H27" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="B28" t="n">
-        <v>-86.16</v>
+        <v>-101.32</v>
       </c>
       <c r="C28" t="n">
-        <v>-85.4</v>
+        <v>-100.59</v>
       </c>
       <c r="D28" t="n">
-        <v>-84.63</v>
+        <v>-99.8</v>
       </c>
       <c r="E28" t="n">
-        <v>-83.87</v>
+        <v>-98.98</v>
       </c>
       <c r="F28" t="n">
-        <v>-83.12</v>
+        <v>-98.19</v>
       </c>
       <c r="G28" t="n">
-        <v>-82.36</v>
-      </c>
-      <c r="H28" t="n">
-        <v>-81.52</v>
-      </c>
-      <c r="I28" t="n">
-        <v>-80.71</v>
-      </c>
-      <c r="J28" t="n">
-        <v>-79.87</v>
-      </c>
-      <c r="K28" t="n">
-        <v>-79.03</v>
+        <v>-97.4</v>
+      </c>
+      <c r="H28" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="B29" t="n">
-        <v>1264.98</v>
+        <v>1316.56</v>
       </c>
       <c r="C29" t="n">
-        <v>1268.99</v>
+        <v>1321.7</v>
       </c>
       <c r="D29" t="n">
-        <v>1272.97</v>
+        <v>1325.9</v>
       </c>
       <c r="E29" t="n">
-        <v>1276.97</v>
+        <v>1330.08</v>
       </c>
       <c r="F29" t="n">
-        <v>1280.98</v>
+        <v>1334.28</v>
       </c>
       <c r="G29" t="n">
-        <v>1284.98</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1288.13</v>
-      </c>
-      <c r="I29" t="n">
-        <v>1291.27</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1294.4</v>
-      </c>
-      <c r="K29" t="n">
-        <v>1297.54</v>
+        <v>1338.48</v>
+      </c>
+      <c r="H29" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="B30" t="n">
-        <v>2278.71</v>
+        <v>2363.13</v>
       </c>
       <c r="C30" t="n">
-        <v>2296.52</v>
+        <v>2384.72</v>
       </c>
       <c r="D30" t="n">
-        <v>2314.34</v>
+        <v>2403.4</v>
       </c>
       <c r="E30" t="n">
-        <v>2332.15</v>
+        <v>2422.07</v>
       </c>
       <c r="F30" t="n">
-        <v>2349.98</v>
+        <v>2440.75</v>
       </c>
       <c r="G30" t="n">
-        <v>2367.79</v>
-      </c>
-      <c r="H30" t="n">
-        <v>2382.32</v>
-      </c>
-      <c r="I30" t="n">
-        <v>2396.84</v>
-      </c>
-      <c r="J30" t="n">
-        <v>2411.37</v>
-      </c>
-      <c r="K30" t="n">
-        <v>2425.91</v>
+        <v>2459.45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="B31" t="n">
-        <v>-210.06</v>
+        <v>-231.43</v>
       </c>
       <c r="C31" t="n">
-        <v>-209.94</v>
+        <v>-231.28</v>
       </c>
       <c r="D31" t="n">
-        <v>-209.82</v>
+        <v>-231.15</v>
       </c>
       <c r="E31" t="n">
-        <v>-209.7</v>
+        <v>-231.02</v>
       </c>
       <c r="F31" t="n">
-        <v>-209.55</v>
+        <v>-230.89</v>
       </c>
       <c r="G31" t="n">
-        <v>-209.43</v>
-      </c>
-      <c r="H31" t="n">
-        <v>-209.31</v>
-      </c>
-      <c r="I31" t="n">
-        <v>-209.21</v>
-      </c>
-      <c r="J31" t="n">
-        <v>-209.08</v>
-      </c>
-      <c r="K31" t="n">
-        <v>-208.96</v>
+        <v>-230.74</v>
+      </c>
+      <c r="H31" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="B32" t="n">
-        <v>1317.66</v>
+        <v>1362.87</v>
       </c>
       <c r="C32" t="n">
-        <v>1322.34</v>
+        <v>1370.43</v>
       </c>
       <c r="D32" t="n">
-        <v>1327.02</v>
+        <v>1375.34</v>
       </c>
       <c r="E32" t="n">
-        <v>1331.7</v>
+        <v>1380.24</v>
       </c>
       <c r="F32" t="n">
-        <v>1336.36</v>
+        <v>1385.15</v>
       </c>
       <c r="G32" t="n">
-        <v>1341.03</v>
-      </c>
-      <c r="H32" t="n">
-        <v>1343.22</v>
-      </c>
-      <c r="I32" t="n">
-        <v>1345.42</v>
-      </c>
-      <c r="J32" t="n">
-        <v>1347.61</v>
-      </c>
-      <c r="K32" t="n">
-        <v>1349.8</v>
+        <v>1390.03</v>
+      </c>
+      <c r="H32" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="B33" t="n">
-        <v>417.93</v>
+        <v>420.84</v>
       </c>
       <c r="C33" t="n">
-        <v>421.64</v>
+        <v>426.24</v>
       </c>
       <c r="D33" t="n">
-        <v>425.38</v>
+        <v>430.13</v>
       </c>
       <c r="E33" t="n">
-        <v>429.1</v>
+        <v>434.05</v>
       </c>
       <c r="F33" t="n">
-        <v>432.82</v>
+        <v>437.95</v>
       </c>
       <c r="G33" t="n">
-        <v>436.54</v>
-      </c>
-      <c r="H33" t="n">
-        <v>438.86</v>
-      </c>
-      <c r="I33" t="n">
-        <v>441.19</v>
-      </c>
-      <c r="J33" t="n">
-        <v>443.52</v>
-      </c>
-      <c r="K33" t="n">
-        <v>445.85</v>
+        <v>441.85</v>
+      </c>
+      <c r="H33" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="B34" t="n">
-        <v>-198.27</v>
+        <v>-220.17</v>
       </c>
       <c r="C34" t="n">
-        <v>-197.49</v>
+        <v>-219.33</v>
       </c>
       <c r="D34" t="n">
-        <v>-196.71</v>
+        <v>-218.52</v>
       </c>
       <c r="E34" t="n">
-        <v>-195.96</v>
+        <v>-217.7</v>
       </c>
       <c r="F34" t="n">
-        <v>-195.18</v>
+        <v>-216.91</v>
       </c>
       <c r="G34" t="n">
-        <v>-194.4</v>
-      </c>
-      <c r="H34" t="n">
-        <v>-193.71</v>
-      </c>
-      <c r="I34" t="n">
-        <v>-193.02</v>
-      </c>
-      <c r="J34" t="n">
-        <v>-192.32</v>
-      </c>
-      <c r="K34" t="n">
-        <v>-191.63</v>
+        <v>-216.1</v>
+      </c>
+      <c r="H34" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B35" t="n">
-        <v>4499.62</v>
+        <v>4643.47</v>
       </c>
       <c r="C35" t="n">
-        <v>4548.44</v>
+        <v>4706.96</v>
       </c>
       <c r="D35" t="n">
-        <v>4597.26</v>
+        <v>4758.15</v>
       </c>
       <c r="E35" t="n">
-        <v>4646.1</v>
+        <v>4809.34</v>
       </c>
       <c r="F35" t="n">
-        <v>4694.92</v>
+        <v>4860.55</v>
       </c>
       <c r="G35" t="n">
-        <v>4743.76</v>
-      </c>
-      <c r="H35" t="n">
-        <v>4780.96</v>
-      </c>
-      <c r="I35" t="n">
-        <v>4818.14</v>
-      </c>
-      <c r="J35" t="n">
-        <v>4855.34</v>
-      </c>
-      <c r="K35" t="n">
-        <v>4892.54</v>
+        <v>4911.74</v>
+      </c>
+      <c r="H35" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="B36" t="n">
-        <v>404.93</v>
+        <v>413.69</v>
       </c>
       <c r="C36" t="n">
-        <v>407.36</v>
+        <v>416.45</v>
       </c>
       <c r="D36" t="n">
-        <v>409.79</v>
+        <v>419</v>
       </c>
       <c r="E36" t="n">
-        <v>412.2</v>
+        <v>421.55</v>
       </c>
       <c r="F36" t="n">
-        <v>414.63</v>
+        <v>424.08</v>
       </c>
       <c r="G36" t="n">
-        <v>417.06</v>
-      </c>
-      <c r="H36" t="n">
-        <v>419.23</v>
-      </c>
-      <c r="I36" t="n">
-        <v>421.39</v>
-      </c>
-      <c r="J36" t="n">
-        <v>423.58</v>
-      </c>
-      <c r="K36" t="n">
-        <v>425.74</v>
+        <v>426.62</v>
+      </c>
+      <c r="H36" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="B37" t="n">
-        <v>2208.16</v>
+        <v>2294.36</v>
       </c>
       <c r="C37" t="n">
-        <v>2217.95</v>
+        <v>2307.41</v>
       </c>
       <c r="D37" t="n">
-        <v>2227.75</v>
+        <v>2317.67</v>
       </c>
       <c r="E37" t="n">
-        <v>2237.54</v>
+        <v>2327.95</v>
       </c>
       <c r="F37" t="n">
-        <v>2247.32</v>
+        <v>2338.21</v>
       </c>
       <c r="G37" t="n">
-        <v>2257.13</v>
-      </c>
-      <c r="H37" t="n">
-        <v>2263.85</v>
-      </c>
-      <c r="I37" t="n">
-        <v>2270.57</v>
-      </c>
-      <c r="J37" t="n">
-        <v>2277.29</v>
-      </c>
-      <c r="K37" t="n">
-        <v>2284.01</v>
+        <v>2348.47</v>
+      </c>
+      <c r="H37" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="B38" t="n">
-        <v>28441.76</v>
+        <v>29184</v>
       </c>
       <c r="C38" t="n">
-        <v>28695.46</v>
+        <v>29488.55</v>
       </c>
       <c r="D38" t="n">
-        <v>28949.18</v>
+        <v>29754.56</v>
       </c>
       <c r="E38" t="n">
-        <v>29202.82</v>
+        <v>30020.6</v>
       </c>
       <c r="F38" t="n">
-        <v>29456.5</v>
+        <v>30286.61</v>
       </c>
       <c r="G38" t="n">
-        <v>29710.21</v>
-      </c>
-      <c r="H38" t="n">
-        <v>29922.95</v>
-      </c>
-      <c r="I38" t="n">
-        <v>30135.69</v>
-      </c>
-      <c r="J38" t="n">
-        <v>30348.52</v>
-      </c>
-      <c r="K38" t="n">
-        <v>30561.23</v>
+        <v>30552.52</v>
+      </c>
+      <c r="H38" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
